--- a/2021/analysis_in_progress/joint_travel/summarizing_joint_trips.xlsx
+++ b/2021/analysis_in_progress/joint_travel/summarizing_joint_trips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\travel-studies\2021\analysis_in_progress\joint_travel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8BB1C4-1073-4915-B580-54A45D43C4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DABD14-584B-4CB1-9263-E44FE46CEDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="-1238" windowWidth="17115" windowHeight="10876" xr2:uid="{1AAB26C4-9F11-411E-835B-783E4C462E19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>05:31 PM</t>
   </si>
@@ -62,9 +62,6 @@
     <t>08:07 AM</t>
   </si>
   <si>
-    <t>survey_year hhgroup nnon matching travelers_hh and num trips nall joint trips</t>
-  </si>
-  <si>
     <t>1        2017   rMove                                     5000             7540</t>
   </si>
   <si>
@@ -77,22 +74,16 @@
     <t>4        2019 rSurvey                                      402             1869</t>
   </si>
   <si>
-    <t xml:space="preserve">  survey_year hhgroup nnon matching travelers_hh and num trips nall joint trips</t>
-  </si>
-  <si>
-    <t>1        2017   rMove                                     1862             3068</t>
-  </si>
-  <si>
-    <t>2        2017 rSurvey                                      432             2066</t>
-  </si>
-  <si>
-    <t>3        2019   rMove                                     3776             5784</t>
-  </si>
-  <si>
-    <t>4        2019 rSurvey                                      438             1584</t>
-  </si>
-  <si>
-    <t>1        2021    &lt;NA&gt;                                      733             2155</t>
+    <t>survey_year</t>
+  </si>
+  <si>
+    <t>hhgroup</t>
+  </si>
+  <si>
+    <t>nnon matching travelers_hh and num trips</t>
+  </si>
+  <si>
+    <t>nall joint trips</t>
   </si>
   <si>
     <t>survey_year hhgroup nnon matching travelers_hh and num grouped trips, num grouped trip resulting</t>
@@ -110,17 +101,29 @@
     <t>step one: identify trips in which travelers_hh&gt;1, as potentially joint travel</t>
   </si>
   <si>
-    <t>Now: Matching more loosely to identify trips that are the same: matching on household_id, origin tract, destination tract, arrival hour</t>
-  </si>
-  <si>
     <t>Using the looser match criteria, summarizing 2021</t>
+  </si>
+  <si>
+    <t>&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt;</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Now: Matching more loosely to identify trips that are the same: matching on household_id, origin taz, destination taz,  arrival hour</t>
+  </si>
+  <si>
+    <t>rSurvey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +149,32 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -191,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -207,6 +236,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923A0A16-35CA-493A-BB98-AD977B581F62}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,95 +748,213 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2749</v>
+      </c>
+      <c r="D23" s="11">
+        <v>5877</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="11">
+        <v>338</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2354</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>5912</v>
+      </c>
+      <c r="D25" s="11">
+        <v>11239</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="11">
+        <v>414</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1843</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="C31" s="11">
+        <v>755</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1825</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E21:E22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
